--- a/HelpDeskVG/ReportFiles/CLOSEDTICKET.xlsx
+++ b/HelpDeskVG/ReportFiles/CLOSEDTICKET.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLID FIVE\source\repos\HelpDeskVG\HelpDeskVG\ReportFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB58BE5F-7667-4D62-A68D-0B6A65DC6C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76D13FE-943A-4B3F-A3D4-6CF888943A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13245" yWindow="480" windowWidth="12615" windowHeight="14910" xr2:uid="{FF28C796-7AAB-4529-8AD6-230348660221}"/>
+    <workbookView xWindow="2955" yWindow="3285" windowWidth="22200" windowHeight="9810" xr2:uid="{FF28C796-7AAB-4529-8AD6-230348660221}"/>
   </bookViews>
   <sheets>
     <sheet name="ClosedTicket" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>TICKET CODE</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>WITH THIRD PARTY?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUBJECT </t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
   </si>
 </sst>
 </file>
@@ -461,35 +467,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E62F1612-98A1-4464-8FB8-93DAEC066C77}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.85546875" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" customWidth="1"/>
-    <col min="5" max="5" width="33.28515625" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" customWidth="1"/>
-    <col min="7" max="7" width="35.140625" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" customWidth="1"/>
-    <col min="10" max="10" width="28.140625" customWidth="1"/>
-    <col min="11" max="11" width="34.7109375" customWidth="1"/>
-    <col min="12" max="12" width="40.28515625" customWidth="1"/>
-    <col min="13" max="13" width="28.42578125" customWidth="1"/>
+    <col min="2" max="3" width="25.5703125" customWidth="1"/>
+    <col min="4" max="4" width="40" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" customWidth="1"/>
+    <col min="7" max="7" width="33.28515625" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" customWidth="1"/>
+    <col min="9" max="9" width="35.140625" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" customWidth="1"/>
+    <col min="12" max="12" width="28.140625" customWidth="1"/>
+    <col min="13" max="13" width="34.7109375" customWidth="1"/>
+    <col min="14" max="14" width="40.28515625" customWidth="1"/>
+    <col min="15" max="15" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -497,36 +504,42 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>9</v>
       </c>
     </row>

--- a/HelpDeskVG/ReportFiles/CLOSEDTICKET.xlsx
+++ b/HelpDeskVG/ReportFiles/CLOSEDTICKET.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLID FIVE\source\repos\HelpDeskVG\HelpDeskVG\ReportFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76D13FE-943A-4B3F-A3D4-6CF888943A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6941196F-1D3B-465E-993D-729D32DC0A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2955" yWindow="3285" windowWidth="22200" windowHeight="9810" xr2:uid="{FF28C796-7AAB-4529-8AD6-230348660221}"/>
+    <workbookView xWindow="8325" yWindow="540" windowWidth="18705" windowHeight="12900" xr2:uid="{FF28C796-7AAB-4529-8AD6-230348660221}"/>
   </bookViews>
   <sheets>
     <sheet name="ClosedTicket" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>TICKET CODE</t>
   </si>
@@ -84,6 +84,24 @@
   </si>
   <si>
     <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASSIGNED IT PIC </t>
+  </si>
+  <si>
+    <t>ASSIGNED DATE TIME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESOLVED DATE TIME </t>
+  </si>
+  <si>
+    <t>SLA HOURS</t>
+  </si>
+  <si>
+    <t>ACTUAL HOURS</t>
+  </si>
+  <si>
+    <t>HIT OR MISS</t>
   </si>
 </sst>
 </file>
@@ -467,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E62F1612-98A1-4464-8FB8-93DAEC066C77}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,14 +507,20 @@
     <col min="13" max="13" width="34.7109375" customWidth="1"/>
     <col min="14" max="14" width="40.28515625" customWidth="1"/>
     <col min="15" max="15" width="28.42578125" customWidth="1"/>
+    <col min="16" max="16" width="35.7109375" customWidth="1"/>
+    <col min="17" max="17" width="38.5703125" customWidth="1"/>
+    <col min="18" max="18" width="39.42578125" customWidth="1"/>
+    <col min="19" max="19" width="37.140625" customWidth="1"/>
+    <col min="20" max="20" width="35.7109375" customWidth="1"/>
+    <col min="21" max="21" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -541,6 +565,24 @@
       </c>
       <c r="O3" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
